--- a/Data/Processing/2024-02-02/GABRIEL.xlsx
+++ b/Data/Processing/2024-02-02/GABRIEL.xlsx
@@ -4319,7 +4319,7 @@
         <v>172.46</v>
       </c>
       <c r="D76">
-        <v>169.59</v>
+        <v>169.6</v>
       </c>
       <c r="E76">
         <v>170.78</v>
@@ -4340,16 +4340,16 @@
         <v>0.8</v>
       </c>
       <c r="K76">
-        <v>-0.88</v>
+        <v>-0.87</v>
       </c>
       <c r="L76">
         <v>0.55</v>
       </c>
       <c r="M76">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N76">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O76">
         <v>152.4172727272727</v>
